--- a/embedded_hcl_on_ice_single_water_to_hcl_saop.xlsx
+++ b/embedded_hcl_on_ice_single_water_to_hcl_saop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/github_thesis_graph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A056B7BC-87FD-184E-BE12-0DB396F10E4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88B804F-7F95-574F-98D2-D5CD469E35C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="1040" windowWidth="27100" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="-1060" yWindow="3300" windowWidth="25600" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,233 +391,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="B3:R28"/>
+  <dimension ref="B4:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:R29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>2763.6035820000002</v>
-      </c>
-      <c r="F4">
-        <v>252.98066700000001</v>
-      </c>
-      <c r="J4">
-        <v>192.30013700000001</v>
-      </c>
-      <c r="N4">
-        <v>193.14367799999999</v>
-      </c>
-      <c r="R4">
-        <v>191.45659599999999</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>2764.3382790000001</v>
+        <v>2763.6035820000002</v>
       </c>
       <c r="F5">
-        <v>253.71536399999999</v>
+        <v>252.98066700000001</v>
       </c>
       <c r="J5">
-        <v>193.03483399999999</v>
+        <v>192.30013700000001</v>
       </c>
       <c r="N5">
-        <v>193.87837500000001</v>
+        <v>193.14367799999999</v>
       </c>
       <c r="R5">
-        <v>192.191293</v>
+        <v>191.45659599999999</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>2764.147802</v>
+        <v>2764.3382790000001</v>
       </c>
       <c r="F6">
-        <v>253.52488700000001</v>
+        <v>253.71536399999999</v>
       </c>
       <c r="J6">
-        <v>192.83075149999999</v>
+        <v>193.03483399999999</v>
       </c>
       <c r="N6">
-        <v>193.660687</v>
+        <v>193.87837500000001</v>
       </c>
       <c r="R6">
-        <v>192.00081599999999</v>
+        <v>192.191293</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>2764.5831779999999</v>
+        <v>2764.147802</v>
       </c>
       <c r="F7">
-        <v>253.960263</v>
+        <v>253.52488700000001</v>
       </c>
       <c r="J7">
-        <v>193.26612750000001</v>
+        <v>192.83075149999999</v>
       </c>
       <c r="N7">
-        <v>194.09606299999999</v>
+        <v>193.660687</v>
       </c>
       <c r="R7">
-        <v>192.43619200000001</v>
+        <v>192.00081599999999</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>2764.8280770000001</v>
+        <v>2764.5831779999999</v>
       </c>
       <c r="F8">
-        <v>254.232373</v>
+        <v>253.960263</v>
       </c>
       <c r="J8">
-        <v>193.53823750000001</v>
+        <v>193.26612750000001</v>
       </c>
       <c r="N8">
-        <v>194.36817300000001</v>
+        <v>194.09606299999999</v>
       </c>
       <c r="R8">
-        <v>192.708302</v>
+        <v>192.43619200000001</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>2763.4403160000002</v>
+        <v>2764.8280770000001</v>
       </c>
       <c r="F9">
-        <v>252.81740099999999</v>
+        <v>254.232373</v>
       </c>
       <c r="J9">
-        <v>192.13687100000001</v>
+        <v>193.53823750000001</v>
       </c>
       <c r="N9">
-        <v>192.980412</v>
+        <v>194.36817300000001</v>
       </c>
       <c r="R9">
-        <v>191.29333</v>
+        <v>192.708302</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>2764.175013</v>
+        <v>2763.4403160000002</v>
       </c>
       <c r="F10">
-        <v>253.52488700000001</v>
+        <v>252.81740099999999</v>
       </c>
       <c r="J10">
-        <v>192.83075149999999</v>
+        <v>192.13687100000001</v>
       </c>
       <c r="N10">
-        <v>193.660687</v>
+        <v>192.980412</v>
       </c>
       <c r="R10">
-        <v>192.00081599999999</v>
+        <v>191.29333</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>2764.9913430000001</v>
+        <v>2764.175013</v>
       </c>
       <c r="F11">
-        <v>254.341217</v>
+        <v>253.52488700000001</v>
       </c>
       <c r="J11">
+        <v>192.83075149999999</v>
+      </c>
+      <c r="N11">
         <v>193.660687</v>
       </c>
-      <c r="N11">
-        <v>194.50422800000001</v>
-      </c>
       <c r="R11">
-        <v>192.81714600000001</v>
+        <v>192.00081599999999</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>2763.9029030000002</v>
+        <v>2764.9913430000001</v>
       </c>
       <c r="F12">
-        <v>253.279988</v>
+        <v>254.341217</v>
       </c>
       <c r="J12">
-        <v>192.599458</v>
+        <v>193.660687</v>
       </c>
       <c r="N12">
-        <v>193.44299899999999</v>
+        <v>194.50422800000001</v>
       </c>
       <c r="R12">
-        <v>191.75591700000001</v>
+        <v>192.81714600000001</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>2764.175013</v>
+        <v>2763.9029030000002</v>
       </c>
       <c r="F13">
-        <v>253.57930899999999</v>
+        <v>253.279988</v>
       </c>
       <c r="J13">
-        <v>192.88517350000001</v>
+        <v>192.599458</v>
       </c>
       <c r="N13">
-        <v>193.71510900000001</v>
+        <v>193.44299899999999</v>
       </c>
       <c r="R13">
-        <v>192.055238</v>
+        <v>191.75591700000001</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>2764.5831779999999</v>
+        <v>2764.175013</v>
       </c>
       <c r="F14">
-        <v>253.960263</v>
+        <v>253.57930899999999</v>
       </c>
       <c r="J14">
-        <v>193.26612750000001</v>
+        <v>192.88517350000001</v>
       </c>
       <c r="N14">
-        <v>194.09606299999999</v>
+        <v>193.71510900000001</v>
       </c>
       <c r="R14">
-        <v>192.43619200000001</v>
+        <v>192.055238</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>2763.7668480000002</v>
+        <v>2764.5831779999999</v>
       </c>
       <c r="F15">
-        <v>253.143933</v>
+        <v>253.960263</v>
       </c>
       <c r="J15">
-        <v>192.44979749999999</v>
+        <v>193.26612750000001</v>
       </c>
       <c r="N15">
-        <v>193.27973299999999</v>
+        <v>194.09606299999999</v>
       </c>
       <c r="R15">
-        <v>191.61986200000001</v>
+        <v>192.43619200000001</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -639,205 +622,222 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>2764.7464439999999</v>
+        <v>2763.7668480000002</v>
       </c>
       <c r="F17">
-        <v>254.12352899999999</v>
+        <v>253.143933</v>
       </c>
       <c r="J17">
-        <v>193.44299899999999</v>
+        <v>192.44979749999999</v>
       </c>
       <c r="N17">
-        <v>194.28654</v>
+        <v>193.27973299999999</v>
       </c>
       <c r="R17">
-        <v>192.599458</v>
+        <v>191.61986200000001</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>2764.474334</v>
+        <v>2764.7464439999999</v>
       </c>
       <c r="F18">
-        <v>253.85141899999999</v>
+        <v>254.12352899999999</v>
       </c>
       <c r="J18">
-        <v>193.15728350000001</v>
+        <v>193.44299899999999</v>
       </c>
       <c r="N18">
-        <v>193.98721900000001</v>
+        <v>194.28654</v>
       </c>
       <c r="R18">
-        <v>192.327348</v>
+        <v>192.599458</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>2763.9573249999999</v>
+        <v>2764.474334</v>
       </c>
       <c r="F19">
-        <v>253.36162100000001</v>
+        <v>253.85141899999999</v>
       </c>
       <c r="J19">
-        <v>192.6674855</v>
+        <v>193.15728350000001</v>
       </c>
       <c r="N19">
-        <v>193.497421</v>
+        <v>193.98721900000001</v>
       </c>
       <c r="R19">
-        <v>191.83754999999999</v>
+        <v>192.327348</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>2764.7464439999999</v>
+        <v>2763.9573249999999</v>
       </c>
       <c r="F20">
-        <v>254.17795100000001</v>
+        <v>253.36162100000001</v>
       </c>
       <c r="J20">
-        <v>193.47701280000001</v>
+        <v>192.6674855</v>
       </c>
       <c r="N20">
-        <v>194.313751</v>
+        <v>193.497421</v>
       </c>
       <c r="R20">
-        <v>192.6402745</v>
+        <v>191.83754999999999</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>2763.7668480000002</v>
+        <v>2764.7464439999999</v>
       </c>
       <c r="F21">
-        <v>253.171144</v>
+        <v>254.17795100000001</v>
       </c>
       <c r="J21">
-        <v>192.47700850000001</v>
+        <v>193.47701280000001</v>
       </c>
       <c r="N21">
-        <v>193.30694399999999</v>
+        <v>194.313751</v>
       </c>
       <c r="R21">
-        <v>191.64707300000001</v>
+        <v>192.6402745</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>2763.9301139999998</v>
+        <v>2763.7668480000002</v>
       </c>
       <c r="F22">
-        <v>253.307199</v>
+        <v>253.171144</v>
       </c>
       <c r="J22">
-        <v>192.62666899999999</v>
+        <v>192.47700850000001</v>
       </c>
       <c r="N22">
-        <v>193.47021000000001</v>
+        <v>193.30694399999999</v>
       </c>
       <c r="R22">
-        <v>191.783128</v>
+        <v>191.64707300000001</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>2764.1205909999999</v>
+        <v>2763.9301139999998</v>
       </c>
       <c r="F23">
-        <v>253.47046499999999</v>
+        <v>253.307199</v>
       </c>
       <c r="J23">
-        <v>192.7763295</v>
+        <v>192.62666899999999</v>
       </c>
       <c r="N23">
-        <v>193.60626500000001</v>
+        <v>193.47021000000001</v>
       </c>
       <c r="R23">
-        <v>191.946394</v>
+        <v>191.783128</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>2764.6376</v>
+        <v>2764.1205909999999</v>
       </c>
       <c r="F24">
-        <v>254.01468499999999</v>
+        <v>253.47046499999999</v>
       </c>
       <c r="J24">
-        <v>193.31374679999999</v>
+        <v>192.7763295</v>
       </c>
       <c r="N24">
-        <v>194.150485</v>
+        <v>193.60626500000001</v>
       </c>
       <c r="R24">
-        <v>192.47700850000001</v>
+        <v>191.946394</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>2764.6103889999999</v>
+        <v>2764.6376</v>
       </c>
       <c r="F25">
-        <v>253.960263</v>
+        <v>254.01468499999999</v>
       </c>
       <c r="J25">
-        <v>193.26612750000001</v>
+        <v>193.31374679999999</v>
       </c>
       <c r="N25">
-        <v>194.09606299999999</v>
+        <v>194.150485</v>
       </c>
       <c r="R25">
-        <v>192.43619200000001</v>
+        <v>192.47700850000001</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>2764.9641320000001</v>
+        <v>2764.6103889999999</v>
       </c>
       <c r="F26">
-        <v>254.341217</v>
+        <v>253.960263</v>
       </c>
       <c r="J26">
-        <v>193.64708150000001</v>
+        <v>193.26612750000001</v>
       </c>
       <c r="N26">
-        <v>194.47701699999999</v>
+        <v>194.09606299999999</v>
       </c>
       <c r="R26">
-        <v>192.81714600000001</v>
+        <v>192.43619200000001</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>2764.0389580000001</v>
+        <v>2764.9641320000001</v>
       </c>
       <c r="F27">
-        <v>253.416043</v>
+        <v>254.341217</v>
       </c>
       <c r="J27">
-        <v>192.71510480000001</v>
+        <v>193.64708150000001</v>
       </c>
       <c r="N27">
-        <v>193.55184299999999</v>
+        <v>194.47701699999999</v>
       </c>
       <c r="R27">
-        <v>191.8783665</v>
+        <v>192.81714600000001</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28">
+        <v>2764.0389580000001</v>
+      </c>
+      <c r="F28">
+        <v>253.416043</v>
+      </c>
+      <c r="J28">
+        <v>192.71510480000001</v>
+      </c>
+      <c r="N28">
+        <v>193.55184299999999</v>
+      </c>
+      <c r="R28">
+        <v>191.8783665</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>2764.7464439999999</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>254.096318</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>193.40218250000001</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>194.23211800000001</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>192.572247</v>
       </c>
     </row>

--- a/embedded_hcl_on_ice_single_water_to_hcl_saop.xlsx
+++ b/embedded_hcl_on_ice_single_water_to_hcl_saop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88B804F-7F95-574F-98D2-D5CD469E35C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA5C1A-4669-1542-91BC-B1BE04F2BA45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1060" yWindow="3300" windowWidth="25600" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="25600" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,453 +391,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="B4:R29"/>
+  <dimension ref="A4:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="R4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2763.6035820000002</v>
+      </c>
       <c r="B5">
-        <v>2763.6035820000002</v>
-      </c>
-      <c r="F5">
         <v>252.98066700000001</v>
       </c>
-      <c r="J5">
+      <c r="C5">
         <v>192.30013700000001</v>
       </c>
-      <c r="N5">
+      <c r="D5">
         <v>193.14367799999999</v>
       </c>
-      <c r="R5">
+      <c r="E5">
         <v>191.45659599999999</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2764.3382790000001</v>
+      </c>
       <c r="B6">
-        <v>2764.3382790000001</v>
-      </c>
-      <c r="F6">
         <v>253.71536399999999</v>
       </c>
-      <c r="J6">
+      <c r="C6">
         <v>193.03483399999999</v>
       </c>
-      <c r="N6">
+      <c r="D6">
         <v>193.87837500000001</v>
       </c>
-      <c r="R6">
+      <c r="E6">
         <v>192.191293</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2764.147802</v>
+      </c>
       <c r="B7">
-        <v>2764.147802</v>
-      </c>
-      <c r="F7">
         <v>253.52488700000001</v>
       </c>
-      <c r="J7">
+      <c r="C7">
         <v>192.83075149999999</v>
       </c>
-      <c r="N7">
+      <c r="D7">
         <v>193.660687</v>
       </c>
-      <c r="R7">
+      <c r="E7">
         <v>192.00081599999999</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2764.5831779999999</v>
+      </c>
       <c r="B8">
+        <v>253.960263</v>
+      </c>
+      <c r="C8">
+        <v>193.26612750000001</v>
+      </c>
+      <c r="D8">
+        <v>194.09606299999999</v>
+      </c>
+      <c r="E8">
+        <v>192.43619200000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2764.8280770000001</v>
+      </c>
+      <c r="B9">
+        <v>254.232373</v>
+      </c>
+      <c r="C9">
+        <v>193.53823750000001</v>
+      </c>
+      <c r="D9">
+        <v>194.36817300000001</v>
+      </c>
+      <c r="E9">
+        <v>192.708302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2763.4403160000002</v>
+      </c>
+      <c r="B10">
+        <v>252.81740099999999</v>
+      </c>
+      <c r="C10">
+        <v>192.13687100000001</v>
+      </c>
+      <c r="D10">
+        <v>192.980412</v>
+      </c>
+      <c r="E10">
+        <v>191.29333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2764.175013</v>
+      </c>
+      <c r="B11">
+        <v>253.52488700000001</v>
+      </c>
+      <c r="C11">
+        <v>192.83075149999999</v>
+      </c>
+      <c r="D11">
+        <v>193.660687</v>
+      </c>
+      <c r="E11">
+        <v>192.00081599999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2764.9913430000001</v>
+      </c>
+      <c r="B12">
+        <v>254.341217</v>
+      </c>
+      <c r="C12">
+        <v>193.660687</v>
+      </c>
+      <c r="D12">
+        <v>194.50422800000001</v>
+      </c>
+      <c r="E12">
+        <v>192.81714600000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2763.9029030000002</v>
+      </c>
+      <c r="B13">
+        <v>253.279988</v>
+      </c>
+      <c r="C13">
+        <v>192.599458</v>
+      </c>
+      <c r="D13">
+        <v>193.44299899999999</v>
+      </c>
+      <c r="E13">
+        <v>191.75591700000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2764.175013</v>
+      </c>
+      <c r="B14">
+        <v>253.57930899999999</v>
+      </c>
+      <c r="C14">
+        <v>192.88517350000001</v>
+      </c>
+      <c r="D14">
+        <v>193.71510900000001</v>
+      </c>
+      <c r="E14">
+        <v>192.055238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2764.5831779999999</v>
       </c>
-      <c r="F8">
+      <c r="B15">
         <v>253.960263</v>
       </c>
-      <c r="J8">
+      <c r="C15">
         <v>193.26612750000001</v>
       </c>
-      <c r="N8">
+      <c r="D15">
         <v>194.09606299999999</v>
       </c>
-      <c r="R8">
+      <c r="E15">
         <v>192.43619200000001</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>2764.8280770000001</v>
-      </c>
-      <c r="F9">
-        <v>254.232373</v>
-      </c>
-      <c r="J9">
-        <v>193.53823750000001</v>
-      </c>
-      <c r="N9">
-        <v>194.36817300000001</v>
-      </c>
-      <c r="R9">
-        <v>192.708302</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>2763.4403160000002</v>
-      </c>
-      <c r="F10">
-        <v>252.81740099999999</v>
-      </c>
-      <c r="J10">
-        <v>192.13687100000001</v>
-      </c>
-      <c r="N10">
-        <v>192.980412</v>
-      </c>
-      <c r="R10">
-        <v>191.29333</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>2764.175013</v>
-      </c>
-      <c r="F11">
-        <v>253.52488700000001</v>
-      </c>
-      <c r="J11">
-        <v>192.83075149999999</v>
-      </c>
-      <c r="N11">
-        <v>193.660687</v>
-      </c>
-      <c r="R11">
-        <v>192.00081599999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>2764.9913430000001</v>
-      </c>
-      <c r="F12">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2763.7668480000002</v>
+      </c>
+      <c r="B16">
+        <v>253.143933</v>
+      </c>
+      <c r="C16">
+        <v>192.44979749999999</v>
+      </c>
+      <c r="D16">
+        <v>193.27973299999999</v>
+      </c>
+      <c r="E16">
+        <v>191.61986200000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2763.7668480000002</v>
+      </c>
+      <c r="B17">
+        <v>253.143933</v>
+      </c>
+      <c r="C17">
+        <v>192.44979749999999</v>
+      </c>
+      <c r="D17">
+        <v>193.27973299999999</v>
+      </c>
+      <c r="E17">
+        <v>191.61986200000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2764.7464439999999</v>
+      </c>
+      <c r="B18">
+        <v>254.12352899999999</v>
+      </c>
+      <c r="C18">
+        <v>193.44299899999999</v>
+      </c>
+      <c r="D18">
+        <v>194.28654</v>
+      </c>
+      <c r="E18">
+        <v>192.599458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2764.474334</v>
+      </c>
+      <c r="B19">
+        <v>253.85141899999999</v>
+      </c>
+      <c r="C19">
+        <v>193.15728350000001</v>
+      </c>
+      <c r="D19">
+        <v>193.98721900000001</v>
+      </c>
+      <c r="E19">
+        <v>192.327348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2763.9573249999999</v>
+      </c>
+      <c r="B20">
+        <v>253.36162100000001</v>
+      </c>
+      <c r="C20">
+        <v>192.6674855</v>
+      </c>
+      <c r="D20">
+        <v>193.497421</v>
+      </c>
+      <c r="E20">
+        <v>191.83754999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2764.7464439999999</v>
+      </c>
+      <c r="B21">
+        <v>254.17795100000001</v>
+      </c>
+      <c r="C21">
+        <v>193.47701280000001</v>
+      </c>
+      <c r="D21">
+        <v>194.313751</v>
+      </c>
+      <c r="E21">
+        <v>192.6402745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2763.7668480000002</v>
+      </c>
+      <c r="B22">
+        <v>253.171144</v>
+      </c>
+      <c r="C22">
+        <v>192.47700850000001</v>
+      </c>
+      <c r="D22">
+        <v>193.30694399999999</v>
+      </c>
+      <c r="E22">
+        <v>191.64707300000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2763.9301139999998</v>
+      </c>
+      <c r="B23">
+        <v>253.307199</v>
+      </c>
+      <c r="C23">
+        <v>192.62666899999999</v>
+      </c>
+      <c r="D23">
+        <v>193.47021000000001</v>
+      </c>
+      <c r="E23">
+        <v>191.783128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2764.1205909999999</v>
+      </c>
+      <c r="B24">
+        <v>253.47046499999999</v>
+      </c>
+      <c r="C24">
+        <v>192.7763295</v>
+      </c>
+      <c r="D24">
+        <v>193.60626500000001</v>
+      </c>
+      <c r="E24">
+        <v>191.946394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2764.6376</v>
+      </c>
+      <c r="B25">
+        <v>254.01468499999999</v>
+      </c>
+      <c r="C25">
+        <v>193.31374679999999</v>
+      </c>
+      <c r="D25">
+        <v>194.150485</v>
+      </c>
+      <c r="E25">
+        <v>192.47700850000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2764.6103889999999</v>
+      </c>
+      <c r="B26">
+        <v>253.960263</v>
+      </c>
+      <c r="C26">
+        <v>193.26612750000001</v>
+      </c>
+      <c r="D26">
+        <v>194.09606299999999</v>
+      </c>
+      <c r="E26">
+        <v>192.43619200000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2764.9641320000001</v>
+      </c>
+      <c r="B27">
         <v>254.341217</v>
       </c>
-      <c r="J12">
-        <v>193.660687</v>
-      </c>
-      <c r="N12">
-        <v>194.50422800000001</v>
-      </c>
-      <c r="R12">
+      <c r="C27">
+        <v>193.64708150000001</v>
+      </c>
+      <c r="D27">
+        <v>194.47701699999999</v>
+      </c>
+      <c r="E27">
         <v>192.81714600000001</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>2763.9029030000002</v>
-      </c>
-      <c r="F13">
-        <v>253.279988</v>
-      </c>
-      <c r="J13">
-        <v>192.599458</v>
-      </c>
-      <c r="N13">
-        <v>193.44299899999999</v>
-      </c>
-      <c r="R13">
-        <v>191.75591700000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>2764.175013</v>
-      </c>
-      <c r="F14">
-        <v>253.57930899999999</v>
-      </c>
-      <c r="J14">
-        <v>192.88517350000001</v>
-      </c>
-      <c r="N14">
-        <v>193.71510900000001</v>
-      </c>
-      <c r="R14">
-        <v>192.055238</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>2764.5831779999999</v>
-      </c>
-      <c r="F15">
-        <v>253.960263</v>
-      </c>
-      <c r="J15">
-        <v>193.26612750000001</v>
-      </c>
-      <c r="N15">
-        <v>194.09606299999999</v>
-      </c>
-      <c r="R15">
-        <v>192.43619200000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>2763.7668480000002</v>
-      </c>
-      <c r="F16">
-        <v>253.143933</v>
-      </c>
-      <c r="J16">
-        <v>192.44979749999999</v>
-      </c>
-      <c r="N16">
-        <v>193.27973299999999</v>
-      </c>
-      <c r="R16">
-        <v>191.61986200000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>2763.7668480000002</v>
-      </c>
-      <c r="F17">
-        <v>253.143933</v>
-      </c>
-      <c r="J17">
-        <v>192.44979749999999</v>
-      </c>
-      <c r="N17">
-        <v>193.27973299999999</v>
-      </c>
-      <c r="R17">
-        <v>191.61986200000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2764.0389580000001</v>
+      </c>
+      <c r="B28">
+        <v>253.416043</v>
+      </c>
+      <c r="C28">
+        <v>192.71510480000001</v>
+      </c>
+      <c r="D28">
+        <v>193.55184299999999</v>
+      </c>
+      <c r="E28">
+        <v>191.8783665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2764.7464439999999</v>
       </c>
-      <c r="F18">
-        <v>254.12352899999999</v>
-      </c>
-      <c r="J18">
-        <v>193.44299899999999</v>
-      </c>
-      <c r="N18">
-        <v>194.28654</v>
-      </c>
-      <c r="R18">
-        <v>192.599458</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>2764.474334</v>
-      </c>
-      <c r="F19">
-        <v>253.85141899999999</v>
-      </c>
-      <c r="J19">
-        <v>193.15728350000001</v>
-      </c>
-      <c r="N19">
-        <v>193.98721900000001</v>
-      </c>
-      <c r="R19">
-        <v>192.327348</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>2763.9573249999999</v>
-      </c>
-      <c r="F20">
-        <v>253.36162100000001</v>
-      </c>
-      <c r="J20">
-        <v>192.6674855</v>
-      </c>
-      <c r="N20">
-        <v>193.497421</v>
-      </c>
-      <c r="R20">
-        <v>191.83754999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>2764.7464439999999</v>
-      </c>
-      <c r="F21">
-        <v>254.17795100000001</v>
-      </c>
-      <c r="J21">
-        <v>193.47701280000001</v>
-      </c>
-      <c r="N21">
-        <v>194.313751</v>
-      </c>
-      <c r="R21">
-        <v>192.6402745</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>2763.7668480000002</v>
-      </c>
-      <c r="F22">
-        <v>253.171144</v>
-      </c>
-      <c r="J22">
-        <v>192.47700850000001</v>
-      </c>
-      <c r="N22">
-        <v>193.30694399999999</v>
-      </c>
-      <c r="R22">
-        <v>191.64707300000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>2763.9301139999998</v>
-      </c>
-      <c r="F23">
-        <v>253.307199</v>
-      </c>
-      <c r="J23">
-        <v>192.62666899999999</v>
-      </c>
-      <c r="N23">
-        <v>193.47021000000001</v>
-      </c>
-      <c r="R23">
-        <v>191.783128</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>2764.1205909999999</v>
-      </c>
-      <c r="F24">
-        <v>253.47046499999999</v>
-      </c>
-      <c r="J24">
-        <v>192.7763295</v>
-      </c>
-      <c r="N24">
-        <v>193.60626500000001</v>
-      </c>
-      <c r="R24">
-        <v>191.946394</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>2764.6376</v>
-      </c>
-      <c r="F25">
-        <v>254.01468499999999</v>
-      </c>
-      <c r="J25">
-        <v>193.31374679999999</v>
-      </c>
-      <c r="N25">
-        <v>194.150485</v>
-      </c>
-      <c r="R25">
-        <v>192.47700850000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>2764.6103889999999</v>
-      </c>
-      <c r="F26">
-        <v>253.960263</v>
-      </c>
-      <c r="J26">
-        <v>193.26612750000001</v>
-      </c>
-      <c r="N26">
-        <v>194.09606299999999</v>
-      </c>
-      <c r="R26">
-        <v>192.43619200000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>2764.9641320000001</v>
-      </c>
-      <c r="F27">
-        <v>254.341217</v>
-      </c>
-      <c r="J27">
-        <v>193.64708150000001</v>
-      </c>
-      <c r="N27">
-        <v>194.47701699999999</v>
-      </c>
-      <c r="R27">
-        <v>192.81714600000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>2764.0389580000001</v>
-      </c>
-      <c r="F28">
-        <v>253.416043</v>
-      </c>
-      <c r="J28">
-        <v>192.71510480000001</v>
-      </c>
-      <c r="N28">
-        <v>193.55184299999999</v>
-      </c>
-      <c r="R28">
-        <v>191.8783665</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>2764.7464439999999</v>
-      </c>
-      <c r="F29">
         <v>254.096318</v>
       </c>
-      <c r="J29">
+      <c r="C29">
         <v>193.40218250000001</v>
       </c>
-      <c r="N29">
+      <c r="D29">
         <v>194.23211800000001</v>
       </c>
-      <c r="R29">
+      <c r="E29">
         <v>192.572247</v>
       </c>
     </row>
